--- a/Code/Results/Cases/Case_1_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.374436790853679</v>
+        <v>1.176837485174929</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.484561744339977E-05</v>
+        <v>0.002974535826233637</v>
       </c>
       <c r="E2">
-        <v>1.950517424459221</v>
+        <v>0.8824200776671347</v>
       </c>
       <c r="F2">
-        <v>1.397961423932557</v>
+        <v>0.7722284337438623</v>
       </c>
       <c r="G2">
-        <v>1.443730021398181</v>
+        <v>0.6574680208752284</v>
       </c>
       <c r="H2">
-        <v>0.7199936046391997</v>
+        <v>0.6343096553614487</v>
       </c>
       <c r="I2">
-        <v>0.4719349466309168</v>
+        <v>0.8676753838507025</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9703694534442491</v>
+        <v>0.3836018548599327</v>
       </c>
       <c r="M2">
-        <v>0.7572262829484941</v>
+        <v>0.3401644527974668</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.067923750190232</v>
+        <v>1.081232832122282</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.263346791006818E-05</v>
+        <v>0.003227087922964222</v>
       </c>
       <c r="E3">
-        <v>1.730868286354635</v>
+        <v>0.8130003696447687</v>
       </c>
       <c r="F3">
-        <v>1.208415540491416</v>
+        <v>0.736615759759303</v>
       </c>
       <c r="G3">
-        <v>1.239580689152746</v>
+        <v>0.6173742649015708</v>
       </c>
       <c r="H3">
-        <v>0.6337476135877012</v>
+        <v>0.6229143106936306</v>
       </c>
       <c r="I3">
-        <v>0.4741802406670601</v>
+        <v>0.8786687051774038</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8417649075074394</v>
+        <v>0.3455242620919705</v>
       </c>
       <c r="M3">
-        <v>0.6584581578101805</v>
+        <v>0.3100154504194776</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.880481002402092</v>
+        <v>1.022494743027039</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001196227471196298</v>
+        <v>0.003394258971711195</v>
       </c>
       <c r="E4">
-        <v>1.596399340106572</v>
+        <v>0.7702308310097692</v>
       </c>
       <c r="F4">
-        <v>1.096264856453644</v>
+        <v>0.7155945718421748</v>
       </c>
       <c r="G4">
-        <v>1.118852899413668</v>
+        <v>0.5935436061577377</v>
       </c>
       <c r="H4">
-        <v>0.5832522083402978</v>
+        <v>0.6165600582999389</v>
       </c>
       <c r="I4">
-        <v>0.4774803684950513</v>
+        <v>0.8862462179699264</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7633514272438049</v>
+        <v>0.3221627195844121</v>
       </c>
       <c r="M4">
-        <v>0.5981124200155392</v>
+        <v>0.2915050746212913</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.804243003773934</v>
+        <v>0.9985505296633335</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001621337067544415</v>
+        <v>0.003465379380220623</v>
       </c>
       <c r="E5">
-        <v>1.541671275835725</v>
+        <v>0.7527664579437214</v>
       </c>
       <c r="F5">
-        <v>1.051500060506172</v>
+        <v>0.7072382074766352</v>
       </c>
       <c r="G5">
-        <v>1.070674638499156</v>
+        <v>0.5840272372547588</v>
       </c>
       <c r="H5">
-        <v>0.5632264391392141</v>
+        <v>0.6141309166064985</v>
       </c>
       <c r="I5">
-        <v>0.4792817924890613</v>
+        <v>0.8895421112252677</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7315096861725294</v>
+        <v>0.3126474890053146</v>
       </c>
       <c r="M5">
-        <v>0.5735802790364843</v>
+        <v>0.28396257117857</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.791591369522877</v>
+        <v>0.9945741661600778</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001700575151830641</v>
+        <v>0.003477368517840307</v>
       </c>
       <c r="E6">
-        <v>1.532587067647839</v>
+        <v>0.7498644063622493</v>
       </c>
       <c r="F6">
-        <v>1.044120033597352</v>
+        <v>0.7058632443069115</v>
       </c>
       <c r="G6">
-        <v>1.062732302380738</v>
+        <v>0.5824587276371318</v>
       </c>
       <c r="H6">
-        <v>0.5599326353975869</v>
+        <v>0.6137372012783544</v>
       </c>
       <c r="I6">
-        <v>0.479607755273733</v>
+        <v>0.8901019514634783</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7262284609611527</v>
+        <v>0.3110677874633723</v>
       </c>
       <c r="M6">
-        <v>0.5695098778410781</v>
+        <v>0.282710191438504</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.879452292688114</v>
+        <v>1.022171853636564</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0001201369324312918</v>
+        <v>0.003395206052935307</v>
       </c>
       <c r="E7">
-        <v>1.595661016376326</v>
+        <v>0.7699954422846105</v>
       </c>
       <c r="F7">
-        <v>1.095657505968092</v>
+        <v>0.7154810283570043</v>
       </c>
       <c r="G7">
-        <v>1.118199202941838</v>
+        <v>0.5934144803574668</v>
       </c>
       <c r="H7">
-        <v>0.5829799851254052</v>
+        <v>0.6165266508606351</v>
       </c>
       <c r="I7">
-        <v>0.4775028480702517</v>
+        <v>0.8862898255076175</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7629215760150885</v>
+        <v>0.3220343742026444</v>
       </c>
       <c r="M7">
-        <v>0.5977813510089334</v>
+        <v>0.2914033508293272</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.268566112170106</v>
+        <v>1.143881245403861</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.864269291309341E-05</v>
+        <v>0.003059075711685066</v>
       </c>
       <c r="E8">
-        <v>1.874680533655749</v>
+        <v>0.8585150423641181</v>
       </c>
       <c r="F8">
-        <v>1.331648084589474</v>
+        <v>0.759772209230448</v>
       </c>
       <c r="G8">
-        <v>1.372290374515899</v>
+        <v>0.6434784575747869</v>
       </c>
       <c r="H8">
-        <v>0.689703133276339</v>
+        <v>0.6302463907991012</v>
       </c>
       <c r="I8">
-        <v>0.4722936747780793</v>
+        <v>0.8712940509485776</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9258960094719271</v>
+        <v>0.3704690157366315</v>
       </c>
       <c r="M8">
-        <v>0.7230991754113063</v>
+        <v>0.3297689974708788</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.039852872142717</v>
+        <v>1.382224387801045</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0005223601668924438</v>
+        <v>0.002498048881701687</v>
       </c>
       <c r="E9">
-        <v>2.426588371120289</v>
+        <v>1.030904948253522</v>
       </c>
       <c r="F9">
-        <v>1.834361877284735</v>
+        <v>0.8534545117699963</v>
       </c>
       <c r="G9">
-        <v>1.914405561833945</v>
+        <v>0.7480440086154374</v>
       </c>
       <c r="H9">
-        <v>0.9218816327959871</v>
+        <v>0.6623102711210151</v>
       </c>
       <c r="I9">
-        <v>0.4786357839589428</v>
+        <v>0.8484598970722601</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.251169512761237</v>
+        <v>0.4655907249104416</v>
       </c>
       <c r="M9">
-        <v>0.9720115929768838</v>
+        <v>0.405004059385746</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.615029114801132</v>
+        <v>1.557101345408796</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.001433564974699486</v>
+        <v>0.002148565239374012</v>
       </c>
       <c r="E10">
-        <v>2.837603722205756</v>
+        <v>1.156787668031228</v>
       </c>
       <c r="F10">
-        <v>2.238096427904367</v>
+        <v>0.9266213429432355</v>
       </c>
       <c r="G10">
-        <v>2.350764133017293</v>
+        <v>0.8289729631373746</v>
       </c>
       <c r="H10">
-        <v>1.111751723263808</v>
+        <v>0.6891014619245368</v>
       </c>
       <c r="I10">
-        <v>0.4954041992587719</v>
+        <v>0.8357009936032753</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.495689763345325</v>
+        <v>0.5355664369157864</v>
       </c>
       <c r="M10">
-        <v>1.158072153436819</v>
+        <v>0.4602725725576278</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.879428585910716</v>
+        <v>1.636601298962319</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002013163253487882</v>
+        <v>0.002003821386211246</v>
       </c>
       <c r="E11">
-        <v>3.026497323958097</v>
+        <v>1.213879516732646</v>
       </c>
       <c r="F11">
-        <v>2.431866600231857</v>
+        <v>0.9608875817463769</v>
       </c>
       <c r="G11">
-        <v>2.560516721219699</v>
+        <v>0.8667266878083524</v>
       </c>
       <c r="H11">
-        <v>1.203716386490498</v>
+        <v>0.7020111113183134</v>
       </c>
       <c r="I11">
-        <v>0.5061711183672983</v>
+        <v>0.8307716699318846</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.608670653392636</v>
+        <v>0.567421140717471</v>
       </c>
       <c r="M11">
-        <v>1.243729431662629</v>
+        <v>0.4854133007046215</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.980028399453715</v>
+        <v>1.666697519306524</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00226087478512671</v>
+        <v>0.00195111123403291</v>
       </c>
       <c r="E12">
-        <v>3.098373086771005</v>
+        <v>1.235472967010793</v>
       </c>
       <c r="F12">
-        <v>2.50695418732316</v>
+        <v>0.9740075788648568</v>
       </c>
       <c r="G12">
-        <v>2.641854554967551</v>
+        <v>0.8811616136073894</v>
       </c>
       <c r="H12">
-        <v>1.239482524415536</v>
+        <v>0.7070050404674078</v>
       </c>
       <c r="I12">
-        <v>0.5107479815909031</v>
+        <v>0.8290310910036496</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.651756626055146</v>
+        <v>0.5794868812524498</v>
       </c>
       <c r="M12">
-        <v>1.276342408176859</v>
+        <v>0.4949330787767252</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.958339778131005</v>
+        <v>1.660216163961195</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002206190238346117</v>
+        <v>0.001962368991813346</v>
       </c>
       <c r="E13">
-        <v>3.082876738101135</v>
+        <v>1.230823605101904</v>
       </c>
       <c r="F13">
-        <v>2.490702122719838</v>
+        <v>0.9711754972379367</v>
       </c>
       <c r="G13">
-        <v>2.624246982510527</v>
+        <v>0.8780465835014013</v>
       </c>
       <c r="H13">
-        <v>1.231735386986031</v>
+        <v>0.7059248004967174</v>
       </c>
       <c r="I13">
-        <v>0.5097392192837162</v>
+        <v>0.8294003454573229</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.642462941360861</v>
+        <v>0.576888174752213</v>
       </c>
       <c r="M13">
-        <v>1.269310252263097</v>
+        <v>0.492882849783598</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.887694917597287</v>
+        <v>1.639077513650648</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.002032948359845133</v>
+        <v>0.001999442468646917</v>
       </c>
       <c r="E14">
-        <v>3.032403214108342</v>
+        <v>1.215656550275128</v>
       </c>
       <c r="F14">
-        <v>2.438008198943706</v>
+        <v>0.9619640670010625</v>
       </c>
       <c r="G14">
-        <v>2.56716834913351</v>
+        <v>0.8679114642167178</v>
       </c>
       <c r="H14">
-        <v>1.206639168682898</v>
+        <v>0.7024198455152941</v>
       </c>
       <c r="I14">
-        <v>0.5065373487219915</v>
+        <v>0.8306259437056553</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.612208979440737</v>
+        <v>0.5684137361194246</v>
       </c>
       <c r="M14">
-        <v>1.246408798696692</v>
+        <v>0.4861965096686873</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.844487689968787</v>
+        <v>1.626128315327264</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.001930655565157036</v>
+        <v>0.002022426290884782</v>
       </c>
       <c r="E15">
-        <v>3.001534029266395</v>
+        <v>1.206362872699373</v>
       </c>
       <c r="F15">
-        <v>2.405962762881416</v>
+        <v>0.9563406536524894</v>
       </c>
       <c r="G15">
-        <v>2.532464040082601</v>
+        <v>0.8617215380087657</v>
       </c>
       <c r="H15">
-        <v>1.191393986455637</v>
+        <v>0.7002867197851401</v>
       </c>
       <c r="I15">
-        <v>0.5046427115713072</v>
+        <v>0.8313930812814831</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.593718599164134</v>
+        <v>0.5632232909821937</v>
       </c>
       <c r="M15">
-        <v>1.232404932596296</v>
+        <v>0.4821008633925317</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.597812106769538</v>
+        <v>1.551904682426539</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.001399375678188708</v>
+        <v>0.002158315677245337</v>
       </c>
       <c r="E16">
-        <v>2.825303428230256</v>
+        <v>1.153053005509804</v>
       </c>
       <c r="F16">
-        <v>2.225657668435034</v>
+        <v>0.9244019740254856</v>
       </c>
       <c r="G16">
-        <v>2.337306637257882</v>
+        <v>0.8265248499999132</v>
       </c>
       <c r="H16">
-        <v>1.105865398103077</v>
+        <v>0.6882724441562118</v>
       </c>
       <c r="I16">
-        <v>0.4947677206984622</v>
+        <v>0.8360407607527804</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.488345586174631</v>
+        <v>0.5334850934228541</v>
       </c>
       <c r="M16">
-        <v>1.152497210763784</v>
+        <v>0.4586295170751669</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.447244150717097</v>
+        <v>1.506356628668868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001118699922900035</v>
+        <v>0.002245364156236551</v>
       </c>
       <c r="E17">
-        <v>2.717729678122865</v>
+        <v>1.120304042213633</v>
       </c>
       <c r="F17">
-        <v>2.117807202431649</v>
+        <v>0.905062245166846</v>
       </c>
       <c r="G17">
-        <v>2.220659682059079</v>
+        <v>0.8051756801951342</v>
       </c>
       <c r="H17">
-        <v>1.054919931939565</v>
+        <v>0.6810880924199978</v>
       </c>
       <c r="I17">
-        <v>0.4895463253641594</v>
+        <v>0.8391161887831657</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.42418457040074</v>
+        <v>0.5152472880365337</v>
       </c>
       <c r="M17">
-        <v>1.103757257694454</v>
+        <v>0.4442300848152314</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.36089472198671</v>
+        <v>1.480153722074874</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0009724920267131232</v>
+        <v>0.002296769027932077</v>
       </c>
       <c r="E18">
-        <v>2.656032097817715</v>
+        <v>1.101451503442831</v>
       </c>
       <c r="F18">
-        <v>2.056708571093978</v>
+        <v>0.8940308287354526</v>
       </c>
       <c r="G18">
-        <v>2.15460668613494</v>
+        <v>0.7929843546874338</v>
       </c>
       <c r="H18">
-        <v>1.026134486784741</v>
+        <v>0.6770237315176928</v>
       </c>
       <c r="I18">
-        <v>0.486835363355766</v>
+        <v>0.8409674142103754</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.387441874814726</v>
+        <v>0.504759502385383</v>
       </c>
       <c r="M18">
-        <v>1.075817075070333</v>
+        <v>0.4359478168682855</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.33169944208305</v>
+        <v>1.471281066995573</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0009254793757533797</v>
+        <v>0.002314401818316325</v>
       </c>
       <c r="E19">
-        <v>2.635170642871401</v>
+        <v>1.095065610369318</v>
       </c>
       <c r="F19">
-        <v>2.036174812762695</v>
+        <v>0.8903115436438469</v>
       </c>
       <c r="G19">
-        <v>2.13241257312248</v>
+        <v>0.7888716178085815</v>
       </c>
       <c r="H19">
-        <v>1.016473175823222</v>
+        <v>0.6756592239411248</v>
       </c>
       <c r="I19">
-        <v>0.4859662893382932</v>
+        <v>0.8416083383478252</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.375027633316364</v>
+        <v>0.5012088873347125</v>
       </c>
       <c r="M19">
-        <v>1.066372253608932</v>
+        <v>0.4331435761200595</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.463245589070084</v>
+        <v>1.511205809249986</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001146972009788971</v>
+        <v>0.002235958946774641</v>
       </c>
       <c r="E20">
-        <v>2.729162403881233</v>
+        <v>1.123791910377918</v>
       </c>
       <c r="F20">
-        <v>2.129189646691714</v>
+        <v>0.9071114205905531</v>
       </c>
       <c r="G20">
-        <v>2.232967416507904</v>
+        <v>0.8074391876504023</v>
       </c>
       <c r="H20">
-        <v>1.060288722965737</v>
+        <v>0.6818458421304285</v>
       </c>
       <c r="I20">
-        <v>0.4900715731915497</v>
+        <v>0.8387802825346355</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.430997605135047</v>
+        <v>0.5171885156273675</v>
       </c>
       <c r="M20">
-        <v>1.108935800004424</v>
+        <v>0.4457629410213997</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.908431362626857</v>
+        <v>1.645286692358354</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002083027884187683</v>
+        <v>0.001988495631476184</v>
       </c>
       <c r="E21">
-        <v>3.047218511945118</v>
+        <v>1.22011219635624</v>
       </c>
       <c r="F21">
-        <v>2.453437003358331</v>
+        <v>0.9646657531184246</v>
       </c>
       <c r="G21">
-        <v>2.583879377421738</v>
+        <v>0.8708846106375745</v>
       </c>
       <c r="H21">
-        <v>1.213983800523494</v>
+        <v>0.703446465449872</v>
       </c>
       <c r="I21">
-        <v>0.5074638417908375</v>
+        <v>0.8302625327129647</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.621086645971104</v>
+        <v>0.5709028025008251</v>
       </c>
       <c r="M21">
-        <v>1.253130463298859</v>
+        <v>0.4881604649229274</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.20221467652641</v>
+        <v>1.732865160856818</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002862018739966388</v>
+        <v>0.001839036951875705</v>
       </c>
       <c r="E22">
-        <v>3.257143671551717</v>
+        <v>1.282911049276379</v>
       </c>
       <c r="F22">
-        <v>2.675473097099456</v>
+        <v>1.003122203538453</v>
       </c>
       <c r="G22">
-        <v>2.824516502123402</v>
+        <v>0.9131582265077043</v>
       </c>
       <c r="H22">
-        <v>1.319997147567676</v>
+        <v>0.7181783305693727</v>
       </c>
       <c r="I22">
-        <v>0.5217697994619286</v>
+        <v>0.8254305325561972</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.74711353993672</v>
+        <v>0.6060259362247393</v>
       </c>
       <c r="M22">
-        <v>1.348415240211082</v>
+        <v>0.5158668266245741</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.045128339102916</v>
+        <v>1.686127932505485</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.002429260651986453</v>
+        <v>0.001917664925835449</v>
       </c>
       <c r="E23">
-        <v>3.144888256055026</v>
+        <v>1.249408399648615</v>
       </c>
       <c r="F23">
-        <v>2.555946709649305</v>
+        <v>0.9825193337446336</v>
       </c>
       <c r="G23">
-        <v>2.694942318373222</v>
+        <v>0.890520899439025</v>
       </c>
       <c r="H23">
-        <v>1.262855816599227</v>
+        <v>0.7102589296521558</v>
       </c>
       <c r="I23">
-        <v>0.5138480267362624</v>
+        <v>0.8279421340679036</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.679667720490784</v>
+        <v>0.5872784868096801</v>
       </c>
       <c r="M23">
-        <v>1.297453326596994</v>
+        <v>0.501079778565682</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.456010678016867</v>
+        <v>1.509013546712424</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001134143319755587</v>
+        <v>0.002240206811675138</v>
       </c>
       <c r="E24">
-        <v>2.723993212674017</v>
+        <v>1.122215122102034</v>
       </c>
       <c r="F24">
-        <v>2.124040840473853</v>
+        <v>0.9061847168295571</v>
       </c>
       <c r="G24">
-        <v>2.227399968716242</v>
+        <v>0.806415598918278</v>
       </c>
       <c r="H24">
-        <v>1.057859933459639</v>
+        <v>0.6815030579646191</v>
       </c>
       <c r="I24">
-        <v>0.4898332061785382</v>
+        <v>0.8389318868659004</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.427916986367819</v>
+        <v>0.5163108948070487</v>
       </c>
       <c r="M24">
-        <v>1.106594330751136</v>
+        <v>0.4450699486763057</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.829979409711655</v>
+        <v>1.317785018602137</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.000307170434037829</v>
+        <v>0.002639021062870173</v>
       </c>
       <c r="E25">
-        <v>2.27652499951634</v>
+        <v>0.9844015314295547</v>
       </c>
       <c r="F25">
-        <v>1.693126866230429</v>
+        <v>0.8273619042632134</v>
       </c>
       <c r="G25">
-        <v>1.761969745500636</v>
+        <v>0.719050622898294</v>
       </c>
       <c r="H25">
-        <v>0.8561097690464123</v>
+        <v>0.6530746801680891</v>
       </c>
       <c r="I25">
-        <v>0.4749518496534293</v>
+        <v>0.8539324794135013</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.162366243269076</v>
+        <v>0.4398423147712549</v>
       </c>
       <c r="M25">
-        <v>0.9042141064476041</v>
+        <v>0.384651704609837</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.176837485174929</v>
+        <v>2.374436790853679</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002974535826233637</v>
+        <v>5.484561763946516E-05</v>
       </c>
       <c r="E2">
-        <v>0.8824200776671347</v>
+        <v>1.950517424459179</v>
       </c>
       <c r="F2">
-        <v>0.7722284337438623</v>
+        <v>1.397961423932529</v>
       </c>
       <c r="G2">
-        <v>0.6574680208752284</v>
+        <v>1.443730021398181</v>
       </c>
       <c r="H2">
-        <v>0.6343096553614487</v>
+        <v>0.7199936046391997</v>
       </c>
       <c r="I2">
-        <v>0.8676753838507025</v>
+        <v>0.4719349466308884</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3836018548599327</v>
+        <v>0.9703694534445049</v>
       </c>
       <c r="M2">
-        <v>0.3401644527974668</v>
+        <v>0.7572262829485297</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.081232832122282</v>
+        <v>2.067923750190346</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003227087922964222</v>
+        <v>5.263346790096435E-05</v>
       </c>
       <c r="E3">
-        <v>0.8130003696447687</v>
+        <v>1.730868286354607</v>
       </c>
       <c r="F3">
-        <v>0.736615759759303</v>
+        <v>1.208415540491387</v>
       </c>
       <c r="G3">
-        <v>0.6173742649015708</v>
+        <v>1.23958068915266</v>
       </c>
       <c r="H3">
-        <v>0.6229143106936306</v>
+        <v>0.6337476135877296</v>
       </c>
       <c r="I3">
-        <v>0.8786687051774038</v>
+        <v>0.4741802406670601</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3455242620919705</v>
+        <v>0.8417649075074962</v>
       </c>
       <c r="M3">
-        <v>0.3100154504194776</v>
+        <v>0.6584581578102089</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.022494743027039</v>
+        <v>1.880481002401808</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003394258971711195</v>
+        <v>0.0001196227471187417</v>
       </c>
       <c r="E4">
-        <v>0.7702308310097692</v>
+        <v>1.59639934010653</v>
       </c>
       <c r="F4">
-        <v>0.7155945718421748</v>
+        <v>1.096264856453615</v>
       </c>
       <c r="G4">
-        <v>0.5935436061577377</v>
+        <v>1.118852899413525</v>
       </c>
       <c r="H4">
-        <v>0.6165600582999389</v>
+        <v>0.5832522083402978</v>
       </c>
       <c r="I4">
-        <v>0.8862462179699264</v>
+        <v>0.4774803684950442</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3221627195844121</v>
+        <v>0.7633514272437765</v>
       </c>
       <c r="M4">
-        <v>0.2915050746212913</v>
+        <v>0.598112420015525</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9985505296633335</v>
+        <v>1.804243003773735</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003465379380220623</v>
+        <v>0.0001621337068686834</v>
       </c>
       <c r="E5">
-        <v>0.7527664579437214</v>
+        <v>1.541671275835725</v>
       </c>
       <c r="F5">
-        <v>0.7072382074766352</v>
+        <v>1.051500060506157</v>
       </c>
       <c r="G5">
-        <v>0.5840272372547588</v>
+        <v>1.070674638499213</v>
       </c>
       <c r="H5">
-        <v>0.6141309166064985</v>
+        <v>0.5632264391393278</v>
       </c>
       <c r="I5">
-        <v>0.8895421112252677</v>
+        <v>0.4792817924890471</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3126474890053146</v>
+        <v>0.731509686172501</v>
       </c>
       <c r="M5">
-        <v>0.28396257117857</v>
+        <v>0.5735802790365128</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9945741661600778</v>
+        <v>1.791591369522934</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003477368517840307</v>
+        <v>0.0001700575153691375</v>
       </c>
       <c r="E6">
-        <v>0.7498644063622493</v>
+        <v>1.53258706764781</v>
       </c>
       <c r="F6">
-        <v>0.7058632443069115</v>
+        <v>1.044120033597352</v>
       </c>
       <c r="G6">
-        <v>0.5824587276371318</v>
+        <v>1.062732302380809</v>
       </c>
       <c r="H6">
-        <v>0.6137372012783544</v>
+        <v>0.5599326353975869</v>
       </c>
       <c r="I6">
-        <v>0.8901019514634783</v>
+        <v>0.4796077552737223</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3110677874633723</v>
+        <v>0.7262284609611527</v>
       </c>
       <c r="M6">
-        <v>0.282710191438504</v>
+        <v>0.569509877841071</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.022171853636564</v>
+        <v>1.879452292688313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003395206052935307</v>
+        <v>0.0001201369325376511</v>
       </c>
       <c r="E7">
-        <v>0.7699954422846105</v>
+        <v>1.595661016376312</v>
       </c>
       <c r="F7">
-        <v>0.7154810283570043</v>
+        <v>1.09565750596812</v>
       </c>
       <c r="G7">
-        <v>0.5934144803574668</v>
+        <v>1.11819920294181</v>
       </c>
       <c r="H7">
-        <v>0.6165266508606351</v>
+        <v>0.5829799851254052</v>
       </c>
       <c r="I7">
-        <v>0.8862898255076175</v>
+        <v>0.4775028480702375</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3220343742026444</v>
+        <v>0.7629215760150316</v>
       </c>
       <c r="M7">
-        <v>0.2914033508293272</v>
+        <v>0.5977813510089121</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.143881245403861</v>
+        <v>2.268566112170106</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003059075711685066</v>
+        <v>3.864269290843048E-05</v>
       </c>
       <c r="E8">
-        <v>0.8585150423641181</v>
+        <v>1.874680533655763</v>
       </c>
       <c r="F8">
-        <v>0.759772209230448</v>
+        <v>1.331648084589517</v>
       </c>
       <c r="G8">
-        <v>0.6434784575747869</v>
+        <v>1.372290374515842</v>
       </c>
       <c r="H8">
-        <v>0.6302463907991012</v>
+        <v>0.6897031332761969</v>
       </c>
       <c r="I8">
-        <v>0.8712940509485776</v>
+        <v>0.4722936747780935</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3704690157366315</v>
+        <v>0.9258960094718987</v>
       </c>
       <c r="M8">
-        <v>0.3297689974708788</v>
+        <v>0.7230991754113063</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.382224387801045</v>
+        <v>3.039852872143115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.002498048881701687</v>
+        <v>0.0005223601670898415</v>
       </c>
       <c r="E9">
-        <v>1.030904948253522</v>
+        <v>2.426588371120232</v>
       </c>
       <c r="F9">
-        <v>0.8534545117699963</v>
+        <v>1.834361877284735</v>
       </c>
       <c r="G9">
-        <v>0.7480440086154374</v>
+        <v>1.914405561833973</v>
       </c>
       <c r="H9">
-        <v>0.6623102711210151</v>
+        <v>0.9218816327959587</v>
       </c>
       <c r="I9">
-        <v>0.8484598970722601</v>
+        <v>0.4786357839589428</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4655907249104416</v>
+        <v>1.251169512761322</v>
       </c>
       <c r="M9">
-        <v>0.405004059385746</v>
+        <v>0.9720115929768767</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.557101345408796</v>
+        <v>3.615029114801132</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002148565239374012</v>
+        <v>0.001433564974693269</v>
       </c>
       <c r="E10">
-        <v>1.156787668031228</v>
+        <v>2.837603722205728</v>
       </c>
       <c r="F10">
-        <v>0.9266213429432355</v>
+        <v>2.238096427904352</v>
       </c>
       <c r="G10">
-        <v>0.8289729631373746</v>
+        <v>2.350764133017293</v>
       </c>
       <c r="H10">
-        <v>0.6891014619245368</v>
+        <v>1.111751723263808</v>
       </c>
       <c r="I10">
-        <v>0.8357009936032753</v>
+        <v>0.4954041992587577</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5355664369157864</v>
+        <v>1.495689763345155</v>
       </c>
       <c r="M10">
-        <v>0.4602725725576278</v>
+        <v>1.158072153436791</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.636601298962319</v>
+        <v>3.879428585910659</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002003821386211246</v>
+        <v>0.002013163253482109</v>
       </c>
       <c r="E11">
-        <v>1.213879516732646</v>
+        <v>3.026497323958154</v>
       </c>
       <c r="F11">
-        <v>0.9608875817463769</v>
+        <v>2.431866600231885</v>
       </c>
       <c r="G11">
-        <v>0.8667266878083524</v>
+        <v>2.560516721219614</v>
       </c>
       <c r="H11">
-        <v>0.7020111113183134</v>
+        <v>1.203716386490498</v>
       </c>
       <c r="I11">
-        <v>0.8307716699318846</v>
+        <v>0.5061711183673339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.567421140717471</v>
+        <v>1.608670653392778</v>
       </c>
       <c r="M11">
-        <v>0.4854133007046215</v>
+        <v>1.243729431662615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.666697519306524</v>
+        <v>3.980028399453715</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00195111123403291</v>
+        <v>0.00226087478501702</v>
       </c>
       <c r="E12">
-        <v>1.235472967010793</v>
+        <v>3.098373086770948</v>
       </c>
       <c r="F12">
-        <v>0.9740075788648568</v>
+        <v>2.506954187323188</v>
       </c>
       <c r="G12">
-        <v>0.8811616136073894</v>
+        <v>2.641854554967551</v>
       </c>
       <c r="H12">
-        <v>0.7070050404674078</v>
+        <v>1.239482524415678</v>
       </c>
       <c r="I12">
-        <v>0.8290310910036496</v>
+        <v>0.5107479815909244</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5794868812524498</v>
+        <v>1.651756626055146</v>
       </c>
       <c r="M12">
-        <v>0.4949330787767252</v>
+        <v>1.276342408176802</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.660216163961195</v>
+        <v>3.958339778131176</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.001962368991813346</v>
+        <v>0.002206190238342565</v>
       </c>
       <c r="E13">
-        <v>1.230823605101904</v>
+        <v>3.082876738101135</v>
       </c>
       <c r="F13">
-        <v>0.9711754972379367</v>
+        <v>2.490702122719853</v>
       </c>
       <c r="G13">
-        <v>0.8780465835014013</v>
+        <v>2.624246982510613</v>
       </c>
       <c r="H13">
-        <v>0.7059248004967174</v>
+        <v>1.231735386986031</v>
       </c>
       <c r="I13">
-        <v>0.8294003454573229</v>
+        <v>0.5097392192836878</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.576888174752213</v>
+        <v>1.642462941360748</v>
       </c>
       <c r="M13">
-        <v>0.492882849783598</v>
+        <v>1.269310252263125</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.639077513650648</v>
+        <v>3.887694917597344</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001999442468646917</v>
+        <v>0.002032948359738551</v>
       </c>
       <c r="E14">
-        <v>1.215656550275128</v>
+        <v>3.032403214108342</v>
       </c>
       <c r="F14">
-        <v>0.9619640670010625</v>
+        <v>2.438008198943706</v>
       </c>
       <c r="G14">
-        <v>0.8679114642167178</v>
+        <v>2.56716834913351</v>
       </c>
       <c r="H14">
-        <v>0.7024198455152941</v>
+        <v>1.206639168682898</v>
       </c>
       <c r="I14">
-        <v>0.8306259437056553</v>
+        <v>0.5065373487220057</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5684137361194246</v>
+        <v>1.612208979440709</v>
       </c>
       <c r="M14">
-        <v>0.4861965096686873</v>
+        <v>1.24640879869672</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.626128315327264</v>
+        <v>3.844487689968787</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002022426290884782</v>
+        <v>0.001930655565061556</v>
       </c>
       <c r="E15">
-        <v>1.206362872699373</v>
+        <v>3.001534029266367</v>
       </c>
       <c r="F15">
-        <v>0.9563406536524894</v>
+        <v>2.405962762881401</v>
       </c>
       <c r="G15">
-        <v>0.8617215380087657</v>
+        <v>2.532464040082601</v>
       </c>
       <c r="H15">
-        <v>0.7002867197851401</v>
+        <v>1.191393986455637</v>
       </c>
       <c r="I15">
-        <v>0.8313930812814831</v>
+        <v>0.5046427115713357</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5632232909821937</v>
+        <v>1.593718599164305</v>
       </c>
       <c r="M15">
-        <v>0.4821008633925317</v>
+        <v>1.232404932596339</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551904682426539</v>
+        <v>3.59781210677005</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002158315677245337</v>
+        <v>0.001399375678186487</v>
       </c>
       <c r="E16">
-        <v>1.153053005509804</v>
+        <v>2.825303428230285</v>
       </c>
       <c r="F16">
-        <v>0.9244019740254856</v>
+        <v>2.225657668435062</v>
       </c>
       <c r="G16">
-        <v>0.8265248499999132</v>
+        <v>2.33730663725791</v>
       </c>
       <c r="H16">
-        <v>0.6882724441562118</v>
+        <v>1.105865398103106</v>
       </c>
       <c r="I16">
-        <v>0.8360407607527804</v>
+        <v>0.4947677206984693</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5334850934228541</v>
+        <v>1.488345586174773</v>
       </c>
       <c r="M16">
-        <v>0.4586295170751669</v>
+        <v>1.152497210763755</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.506356628668868</v>
+        <v>3.447244150717381</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.002245364156236551</v>
+        <v>0.001118699922698863</v>
       </c>
       <c r="E17">
-        <v>1.120304042213633</v>
+        <v>2.717729678122893</v>
       </c>
       <c r="F17">
-        <v>0.905062245166846</v>
+        <v>2.117807202431635</v>
       </c>
       <c r="G17">
-        <v>0.8051756801951342</v>
+        <v>2.220659682059079</v>
       </c>
       <c r="H17">
-        <v>0.6810880924199978</v>
+        <v>1.054919931939594</v>
       </c>
       <c r="I17">
-        <v>0.8391161887831657</v>
+        <v>0.4895463253641452</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5152472880365337</v>
+        <v>1.424184570400598</v>
       </c>
       <c r="M17">
-        <v>0.4442300848152314</v>
+        <v>1.103757257694447</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.480153722074874</v>
+        <v>3.360894721986597</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002296769027932077</v>
+        <v>0.0009724920266895865</v>
       </c>
       <c r="E18">
-        <v>1.101451503442831</v>
+        <v>2.656032097817715</v>
       </c>
       <c r="F18">
-        <v>0.8940308287354526</v>
+        <v>2.05670857109402</v>
       </c>
       <c r="G18">
-        <v>0.7929843546874338</v>
+        <v>2.154606686134997</v>
       </c>
       <c r="H18">
-        <v>0.6770237315176928</v>
+        <v>1.026134486784656</v>
       </c>
       <c r="I18">
-        <v>0.8409674142103754</v>
+        <v>0.4868353633557803</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.504759502385383</v>
+        <v>1.387441874814783</v>
       </c>
       <c r="M18">
-        <v>0.4359478168682855</v>
+        <v>1.075817075070333</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.471281066995573</v>
+        <v>3.331699442082709</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.002314401818316325</v>
+        <v>0.0009254793759612134</v>
       </c>
       <c r="E19">
-        <v>1.095065610369318</v>
+        <v>2.635170642871387</v>
       </c>
       <c r="F19">
-        <v>0.8903115436438469</v>
+        <v>2.036174812762695</v>
       </c>
       <c r="G19">
-        <v>0.7888716178085815</v>
+        <v>2.13241257312248</v>
       </c>
       <c r="H19">
-        <v>0.6756592239411248</v>
+        <v>1.016473175823222</v>
       </c>
       <c r="I19">
-        <v>0.8416083383478252</v>
+        <v>0.4859662893382932</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5012088873347125</v>
+        <v>1.375027633316392</v>
       </c>
       <c r="M19">
-        <v>0.4331435761200595</v>
+        <v>1.066372253608954</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.511205809249986</v>
+        <v>3.463245589069913</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002235958946774641</v>
+        <v>0.001146972009890224</v>
       </c>
       <c r="E20">
-        <v>1.123791910377918</v>
+        <v>2.729162403881233</v>
       </c>
       <c r="F20">
-        <v>0.9071114205905531</v>
+        <v>2.129189646691728</v>
       </c>
       <c r="G20">
-        <v>0.8074391876504023</v>
+        <v>2.232967416507876</v>
       </c>
       <c r="H20">
-        <v>0.6818458421304285</v>
+        <v>1.060288722965737</v>
       </c>
       <c r="I20">
-        <v>0.8387802825346355</v>
+        <v>0.4900715731915426</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5171885156273675</v>
+        <v>1.43099760513519</v>
       </c>
       <c r="M20">
-        <v>0.4457629410213997</v>
+        <v>1.108935800004438</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.645286692358354</v>
+        <v>3.908431362626573</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001988495631476184</v>
+        <v>0.002083027883978517</v>
       </c>
       <c r="E21">
-        <v>1.22011219635624</v>
+        <v>3.047218511945147</v>
       </c>
       <c r="F21">
-        <v>0.9646657531184246</v>
+        <v>2.453437003358303</v>
       </c>
       <c r="G21">
-        <v>0.8708846106375745</v>
+        <v>2.583879377421653</v>
       </c>
       <c r="H21">
-        <v>0.703446465449872</v>
+        <v>1.213983800523494</v>
       </c>
       <c r="I21">
-        <v>0.8302625327129647</v>
+        <v>0.5074638417908659</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5709028025008251</v>
+        <v>1.621086645970934</v>
       </c>
       <c r="M21">
-        <v>0.4881604649229274</v>
+        <v>1.253130463298888</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.732865160856818</v>
+        <v>4.202214676526353</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.001839036951875705</v>
+        <v>0.002862018740173777</v>
       </c>
       <c r="E22">
-        <v>1.282911049276379</v>
+        <v>3.257143671551717</v>
       </c>
       <c r="F22">
-        <v>1.003122203538453</v>
+        <v>2.675473097099427</v>
       </c>
       <c r="G22">
-        <v>0.9131582265077043</v>
+        <v>2.824516502123487</v>
       </c>
       <c r="H22">
-        <v>0.7181783305693727</v>
+        <v>1.319997147567705</v>
       </c>
       <c r="I22">
-        <v>0.8254305325561972</v>
+        <v>0.5217697994619286</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6060259362247393</v>
+        <v>1.747113539936663</v>
       </c>
       <c r="M22">
-        <v>0.5158668266245741</v>
+        <v>1.348415240211096</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.686127932505485</v>
+        <v>4.045128339102689</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001917664925835449</v>
+        <v>0.002429260652080156</v>
       </c>
       <c r="E23">
-        <v>1.249408399648615</v>
+        <v>3.144888256054998</v>
       </c>
       <c r="F23">
-        <v>0.9825193337446336</v>
+        <v>2.555946709649277</v>
       </c>
       <c r="G23">
-        <v>0.890520899439025</v>
+        <v>2.694942318373251</v>
       </c>
       <c r="H23">
-        <v>0.7102589296521558</v>
+        <v>1.262855816599284</v>
       </c>
       <c r="I23">
-        <v>0.8279421340679036</v>
+        <v>0.5138480267362837</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5872784868096801</v>
+        <v>1.679667720490727</v>
       </c>
       <c r="M23">
-        <v>0.501079778565682</v>
+        <v>1.29745332659698</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.509013546712424</v>
+        <v>3.456010678016867</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.002240206811675138</v>
+        <v>0.001134143319661884</v>
       </c>
       <c r="E24">
-        <v>1.122215122102034</v>
+        <v>2.723993212674031</v>
       </c>
       <c r="F24">
-        <v>0.9061847168295571</v>
+        <v>2.124040840473839</v>
       </c>
       <c r="G24">
-        <v>0.806415598918278</v>
+        <v>2.227399968716213</v>
       </c>
       <c r="H24">
-        <v>0.6815030579646191</v>
+        <v>1.057859933459639</v>
       </c>
       <c r="I24">
-        <v>0.8389318868659004</v>
+        <v>0.4898332061785453</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5163108948070487</v>
+        <v>1.427916986367819</v>
       </c>
       <c r="M24">
-        <v>0.4450699486763057</v>
+        <v>1.106594330751129</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.317785018602137</v>
+        <v>2.829979409711598</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.002639021062870173</v>
+        <v>0.0003071704340298353</v>
       </c>
       <c r="E25">
-        <v>0.9844015314295547</v>
+        <v>2.27652499951634</v>
       </c>
       <c r="F25">
-        <v>0.8273619042632134</v>
+        <v>1.693126866230415</v>
       </c>
       <c r="G25">
-        <v>0.719050622898294</v>
+        <v>1.761969745500664</v>
       </c>
       <c r="H25">
-        <v>0.6530746801680891</v>
+        <v>0.8561097690462987</v>
       </c>
       <c r="I25">
-        <v>0.8539324794135013</v>
+        <v>0.4749518496534435</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4398423147712549</v>
+        <v>1.162366243269133</v>
       </c>
       <c r="M25">
-        <v>0.384651704609837</v>
+        <v>0.9042141064476112</v>
       </c>
       <c r="N25">
         <v>0</v>
